--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61002.25846627142</v>
+        <v>12139449.43478799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61002.25846627142</v>
+        <v>12139449.43478799</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10651.40538093877</v>
+        <v>1373137.410227562</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10651.40538093877</v>
+        <v>1373137.410227562</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419172897.066023</v>
+        <v>57452852.03930029</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11929.92117639652</v>
+        <v>1325106.980899055</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22816.109767449</v>
+        <v>2488367.91703024</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33702.29835850148</v>
+        <v>3651628.853161429</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45224.18426607848</v>
+        <v>4739731.269610357</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56181.47621175668</v>
+        <v>5904591.744249375</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67138.76815743488</v>
+        <v>7069452.218888389</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78096.06010311309</v>
+        <v>8234312.6935274</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89053.35204879128</v>
+        <v>9399173.168166412</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100526.7958598585</v>
+        <v>10446103.62491457</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111378.5986476472</v>
+        <v>11602372.26632494</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122183.2340354915</v>
+        <v>12765147.14032425</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>132882.3545159048</v>
+        <v>13922297.56800486</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>143604.9949963181</v>
+        <v>15084128.47568547</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>154494.5625267381</v>
+        <v>16222404.33960939</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167064.6086484854</v>
+        <v>17118564.34305298</v>
       </c>
     </row>
   </sheetData>
